--- a/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 0 (30, 11, 3, 38, 29)/MDD 3 (37, 24, 6, 54, 21)/ANN_128nodes_Uniform0.05Virtual_Control(30, 11, 3, 38, 29)_MDD(37, 24, 6, 54, 21)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 0 (30, 11, 3, 38, 29)/MDD 3 (37, 24, 6, 54, 21)/ANN_128nodes_Uniform0.05Virtual_Control(30, 11, 3, 38, 29)_MDD(37, 24, 6, 54, 21)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
@@ -456,10 +456,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.9999999828297513</v>
+        <v>0.9999999728420853</v>
       </c>
       <c r="E2">
-        <v>0.9999999828297513</v>
+        <v>0.9999999728420853</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -467,13 +467,13 @@
         <v>7</v>
       </c>
       <c r="C3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>0.9927528693442441</v>
+        <v>0.1659400941549308</v>
       </c>
       <c r="E3">
-        <v>0.9927528693442441</v>
+        <v>0.1659400941549308</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>5.394489501254596E-17</v>
+        <v>1.723247976499945E-24</v>
       </c>
       <c r="E4">
-        <v>5.394489501254596E-17</v>
+        <v>1.723247976499945E-24</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -495,13 +495,13 @@
         <v>9</v>
       </c>
       <c r="C5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2755387212176407</v>
+        <v>0.9037415003873736</v>
       </c>
       <c r="E5">
-        <v>0.2755387212176407</v>
+        <v>0.9037415003873736</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.9976787300362939</v>
+        <v>0.8675567725311398</v>
       </c>
       <c r="E6">
-        <v>0.9976787300362939</v>
+        <v>0.8675567725311398</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -526,10 +526,10 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0.9999999968544007</v>
+        <v>0.9999999979084091</v>
       </c>
       <c r="E7">
-        <v>3.145599336562555E-09</v>
+        <v>2.091590900477058E-09</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -540,10 +540,10 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.03448722445571255</v>
+        <v>0.1248569847125248</v>
       </c>
       <c r="E8">
-        <v>0.9655127755442875</v>
+        <v>0.8751430152874752</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -554,10 +554,10 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.061607124188812E-08</v>
+        <v>4.574949830204023E-06</v>
       </c>
       <c r="E9">
-        <v>0.9999999593839287</v>
+        <v>0.9999954250501698</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -568,10 +568,10 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1502262076641702</v>
+        <v>0.001145430908042959</v>
       </c>
       <c r="E10">
-        <v>0.8497737923358298</v>
+        <v>0.998854569091957</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -582,13 +582,13 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.01216056106434174</v>
+        <v>0.03389465263475766</v>
       </c>
       <c r="E11">
-        <v>0.9878394389356583</v>
+        <v>0.9661053473652423</v>
       </c>
       <c r="F11">
-        <v>5.588664054870605</v>
+        <v>4.649733543395996</v>
       </c>
       <c r="G11">
         <v>0.3</v>
